--- a/Barabanca/src/test/resources/supertrend-parsed-results/supertrendParsedResults_v1.xlsx
+++ b/Barabanca/src/test/resources/supertrend-parsed-results/supertrendParsedResults_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Vizerium\java_workspace\git\vizerium\Barabanca\src\test\resources\supertrend-parsed-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDE29F4-805D-4A44-9079-5EE65840A46E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C6E1DA-9888-41E9-80DC-FFE228387521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="8844" yWindow="3504" windowWidth="11928" windowHeight="7596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supertrendParsedResults_v1" sheetId="1" r:id="rId1"/>
@@ -1384,7 +1384,7 @@
   <dimension ref="A1:W145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="Q122" sqref="Q122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3189,7 +3189,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>108</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>108</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>108</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>108</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>108</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>108</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>108</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>108</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>108</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>108</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>108</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>108</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>108</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>108</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>108</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>108</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="122" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>167</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="123" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>167</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>167</v>
       </c>
@@ -10218,7 +10218,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="125" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>167</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="126" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>167</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="127" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>167</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="128" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>167</v>
       </c>
@@ -10502,7 +10502,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="129" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>167</v>
       </c>
@@ -10573,7 +10573,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>167</v>
       </c>
@@ -10644,7 +10644,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>167</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>167</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>167</v>
       </c>
@@ -10857,7 +10857,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>167</v>
       </c>
@@ -10928,7 +10928,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>167</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>167</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>167</v>
       </c>
@@ -11718,7 +11718,7 @@
     </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="1hour"/>
+        <filter val="15min"/>
       </filters>
     </filterColumn>
   </autoFilter>
